--- a/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.0.xlsx
@@ -40,18 +40,18 @@
     <t>הורה:</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>מה נשמע?</t>
+  </si>
+  <si>
+    <t>בסדר.</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>מה נשמע?</t>
-  </si>
-  <si>
-    <t>בסדר.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> יש לנו שם מכתב שחרור?</t>
   </si>
   <si>
@@ -82,39 +82,39 @@
     <t>מה שמך?</t>
   </si>
   <si>
+    <t>איך?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>דוק, שלום.</t>
+  </si>
+  <si>
+    <t>אה יעל.</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>אימא של יואב.</t>
+  </si>
+  <si>
+    <t>יואב.</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>איך?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>דוק, שלום.</t>
-  </si>
-  <si>
-    <t>אה יעל.</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>אימא של יואב.</t>
-  </si>
-  <si>
-    <t>יואב.</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
     <t xml:space="preserve">אנחנו רוצים אההה </t>
   </si>
   <si>
@@ -238,6 +238,9 @@
     <t>gives-l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
   </si>
   <si>
@@ -253,9 +256,6 @@
     <t>מתמודדים איתה, קשה להתמודד אתה.</t>
   </si>
   <si>
-    <t>concern</t>
-  </si>
-  <si>
     <t>זה קשה זה נכון.</t>
   </si>
   <si>
@@ -280,19 +280,19 @@
     <t>הוא יוכל להמשיך,  הוא יוכל להמשיך עם הכול.</t>
   </si>
   <si>
+    <t>עדיף שהוא יעשה ספורט, זה טוב</t>
+  </si>
+  <si>
+    <t>(לא ברור) משנה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נכון </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגלל זה גם עדיף ללמוד את הנושא כמו שצריך </t>
+  </si>
+  <si>
     <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t>עדיף שהוא יעשה ספורט, זה טוב</t>
-  </si>
-  <si>
-    <t>(לא ברור) משנה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נכון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בגלל זה גם עדיף ללמוד את הנושא כמו שצריך </t>
   </si>
   <si>
     <t xml:space="preserve">וגם הילד שלך יצטרך לגדול לתוך זה </t>
@@ -900,15 +900,15 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -922,16 +922,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -973,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -998,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1012,18 +1012,18 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1034,27 +1034,27 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1068,21 +1068,21 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1090,21 +1090,21 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1135,7 +1135,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1163,10 +1163,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1194,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1208,10 +1208,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1275,10 +1275,10 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1289,10 +1289,10 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1320,10 +1320,10 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1337,7 +1337,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1345,13 +1345,13 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1359,13 +1359,13 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1387,13 +1387,13 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1401,13 +1401,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1415,13 +1415,13 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1471,10 +1471,10 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1485,13 +1485,13 @@
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1499,13 +1499,13 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1519,7 +1519,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1547,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1583,13 +1583,13 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1597,13 +1597,13 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1625,7 +1625,7 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -1642,10 +1642,10 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1656,7 +1656,7 @@
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1664,49 +1664,49 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -1715,18 +1715,18 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1740,10 +1740,10 @@
         <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1751,10 +1751,10 @@
         <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1768,10 +1768,10 @@
         <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1779,10 +1779,10 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1796,7 +1796,7 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1807,7 +1807,7 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -1824,10 +1824,10 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1846,7 +1846,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -1855,12 +1855,12 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -1874,30 +1874,30 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
         <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
         <v>92</v>
       </c>
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1922,10 +1922,10 @@
         <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1936,10 +1936,10 @@
         <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1964,10 +1964,10 @@
         <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1975,10 +1975,10 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1992,10 +1992,10 @@
         <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2003,13 +2003,13 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2023,7 +2023,7 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2037,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2051,7 +2051,7 @@
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2062,10 +2062,10 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2076,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2093,7 +2093,7 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2104,10 +2104,10 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2143,13 +2143,13 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2171,13 +2171,13 @@
         <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2199,13 +2199,13 @@
         <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2219,7 +2219,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2230,10 +2230,10 @@
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2241,7 +2241,7 @@
         <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
@@ -2255,7 +2255,7 @@
         <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
@@ -2272,10 +2272,10 @@
         <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2289,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2311,10 +2311,10 @@
         <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2325,7 +2325,7 @@
         <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -2342,10 +2342,10 @@
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2359,7 +2359,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2373,7 +2373,7 @@
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2395,13 +2395,13 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2426,10 +2426,10 @@
         <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2440,10 +2440,10 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2451,13 +2451,13 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2471,7 +2471,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2499,7 +2499,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2521,13 +2521,13 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2549,13 +2549,13 @@
         <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2563,13 +2563,13 @@
         <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2583,7 +2583,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2597,7 +2597,7 @@
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2608,10 +2608,10 @@
         <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2622,10 +2622,10 @@
         <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2633,13 +2633,13 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2661,13 +2661,13 @@
         <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2692,10 +2692,10 @@
         <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2703,13 +2703,13 @@
         <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2717,13 +2717,13 @@
         <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2737,7 +2737,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2748,10 +2748,10 @@
         <v>154</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2765,7 +2765,7 @@
         <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2790,10 +2790,10 @@
         <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2804,10 +2804,10 @@
         <v>158</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2818,10 +2818,10 @@
         <v>158</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2832,10 +2832,10 @@
         <v>158</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -2860,10 +2860,10 @@
         <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2874,10 +2874,10 @@
         <v>158</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2888,10 +2888,10 @@
         <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:4">
